--- a/mbs-perturbation/mega/decisionTree/nearmiss/mega-decisionTree-nearmiss-results.xlsx
+++ b/mbs-perturbation/mega/decisionTree/nearmiss/mega-decisionTree-nearmiss-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3015873015873016</v>
+        <v>0.7818181818181819</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3958333333333333</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3423423423423423</v>
+        <v>0.8775510204081634</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2330729166666667</v>
+        <v>0.8520084566596194</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8235294117647058</v>
+        <v>0.9534883720930233</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2978723404255319</v>
+        <v>0.9534883720930233</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4375</v>
+        <v>0.9534883720930233</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2905585106382979</v>
+        <v>0.9756871035940804</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.8</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4680851063829787</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="D4" t="n">
-        <v>0.55</v>
+        <v>0.5000000000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4483599290780142</v>
+        <v>0.9106765327695561</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.775</v>
+        <v>0.9259259259259259</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6458333333333334</v>
+        <v>0.5681818181818182</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7045454545454546</v>
+        <v>0.7042253521126761</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7245124113475178</v>
+        <v>0.7840909090909092</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="C6" t="n">
-        <v>0.25</v>
+        <v>0.6279069767441861</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4</v>
+        <v>0.6352941176470588</v>
       </c>
       <c r="E6" t="n">
-        <v>0.625</v>
+        <v>0.6076257436452136</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7133566760037348</v>
+        <v>0.8208179245388548</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4115248226950355</v>
+        <v>0.7026427061310783</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4868775593775593</v>
+        <v>0.7341117724521843</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4643007535460993</v>
+        <v>0.8260177491518756</v>
       </c>
     </row>
   </sheetData>
